--- a/biology/Médecine/1584_en_santé_et_médecine/1584_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1584_en_santé_et_médecine/1584_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1584_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1584_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1584 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1584_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1584_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10 juin : mort prématurée du duc d'Anjou, « due, comme celle de son frère Charles IX, à la tuberculose[1] ».
-Pierre Richer de Belleval commence ses études médicales à Montpellier[2].
-« Girolamo Fabrizi d'Acquapendente (1533-1619) inaugure le théâtre anatomique de Padoue[3] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10 juin : mort prématurée du duc d'Anjou, « due, comme celle de son frère Charles IX, à la tuberculose ».
+Pierre Richer de Belleval commence ses études médicales à Montpellier.
+« Girolamo Fabrizi d'Acquapendente (1533-1619) inaugure le théâtre anatomique de Padoue ».</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1584_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1584_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gabriel Fallope, Opera genuina omnia, tam practica quam theorica[4].
-Thomas Muffet publie son De jure et praestantia chemicorum medicamentorum, apologie de la médecine alchimique de Paracelse[5] qui sera recueillie en 1602 dans le Théâtre chimique[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gabriel Fallope, Opera genuina omnia, tam practica quam theorica.
+Thomas Muffet publie son De jure et praestantia chemicorum medicamentorum, apologie de la médecine alchimique de Paracelse qui sera recueillie en 1602 dans le Théâtre chimique.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1584_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1584_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1584 ou 1585 : Paul Zacchias (mort en 1659), médecin italien, archiatre du pape Innocent X[7],[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1584 ou 1585 : Paul Zacchias (mort en 1659), médecin italien, archiatre du pape Innocent X,.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1584_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1584_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>13 juin : Johannes Sambucus (né en 1531), médecin, philologue, humaniste, historien, poète, collectionneur et mécène hongrois[9],[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>13 juin : Johannes Sambucus (né en 1531), médecin, philologue, humaniste, historien, poète, collectionneur et mécène hongrois,.</t>
         </is>
       </c>
     </row>
